--- a/biology/Zoologie/Ipnops/Ipnops.xlsx
+++ b/biology/Zoologie/Ipnops/Ipnops.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipnops est un genre de poissons des grands fonds, de la famille des Ipnopidae. Les poissons du genre Ipnops sont petits, minces et vivent près du fond océanique dans les zones bathyales et abyssales. Le genre est notable pour les yeux peu communs de ses espèces.
 </t>
@@ -511,7 +523,9 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ipnops murrayi et Ipnops agassizi ont été attrapés à des profondeurs de 1 392–3 475 m ; Ipnops murrayi se trouve dans l'océan Atlantique alors que Ipnops agassizi occupe le bassin Indo-Pacifique. Ipnops meadi se trouve aussi dans le bassin Indo-Pacifique, mais dans des eaux plus profondes, vers 3 310 à 4 970 m sous la surface.
 </t>
@@ -542,7 +556,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre n'ont presque jamais été observées dans leur environnement, ainsi les détails de leur mode de vie doivent être déduits des caractéristiques des spécimens capturés. Ils ont de grandes bouches avec de nombreuses petites dents pour avaler les grandes proies, ainsi que des branchiospines bien développées permettant de filtrer de petits morceaux. L'examen du contenu de l'estomac montre un régime composé principalement de crustacés et des polychètes (vers marins).
 Leurs yeux sont extrêmement plats, et les organes de la vue couvrent une bonne part de la partie supérieure de la tête. L'utilité de ces structures est discutée (elles sont sensibles à la lumière et peuvent servir à détecter les proies bioluminescentes) ; il a également été proposé que les organes eux-mêmes puissent être luminescents et agir en tant qu'appâts. Les poissons du genre Ipnops ont une ligne latérale bien développée, qui est peut-être la fonction sensorielle primaire, étant donné l'état dégénéré de leurs autres sens.
@@ -577,17 +593,57 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Liste d'espèces
-Selon World Register of Marine Species                               (9 mai 2017)[1] et FishBase                                           (9 mai 2017)[2] :
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 mai 2017) et FishBase                                           (9 mai 2017) :
 Ipnops agassizii Garman, 1899 — bassin Indo-Pacifique
 Ipnops meadi Nielsen, 1966 — bassin Indo-Pacifique
 Ipnops murrayi Günther, 1878 — océan Atlantique
 Auxquels l'ITIS rajoute :
-Ipnops pristibrachium (Fowler, 1943), probablement synonyme de Ipnops agassizii[3]
+Ipnops pristibrachium (Fowler, 1943), probablement synonyme de Ipnops agassizii
 			Ipnops murrayi
 			Ipnops agassizii
-Synonymes
-Ipnops admet deux synonymes latins :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Ipnops</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ipnops</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Ipnops admet deux synonymes latins :
 Ipnoceps Fowler, 1943
 Lychnoculus Murray, 1877</t>
         </is>
